--- a/xlsx/country_comparison/main_radical_redistr_pol_positive.xlsx
+++ b/xlsx/country_comparison/main_radical_redistr_pol_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -21,18 +21,6 @@
   </si>
   <si>
     <t xml:space="preserve">Millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Center/Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Far right</t>
   </si>
   <si>
     <t xml:space="preserve">Japan Non-voters</t>
@@ -83,11 +71,12 @@
     <t xml:space="preserve">Prefers sustainable future</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
   </si>
   <si>
     <t xml:space="preserve">More likely to vote for party if part of worldwide
@@ -464,567 +453,411 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.664226512802836</v>
+        <v>0.678679804978435</v>
       </c>
       <c r="C2" t="n">
-        <v>0.572848551968255</v>
+        <v>0.582036706373417</v>
       </c>
       <c r="D2" t="n">
-        <v>0.644575228658036</v>
+        <v>0.686368170390751</v>
       </c>
       <c r="E2" t="n">
-        <v>0.800284739031995</v>
+        <v>0.693214710621706</v>
       </c>
       <c r="F2" t="n">
-        <v>0.642550167034555</v>
+        <v>0.701245337266761</v>
       </c>
       <c r="G2" t="n">
-        <v>0.469492339511511</v>
+        <v>0.880240645828153</v>
       </c>
       <c r="H2" t="n">
-        <v>0.686245500193959</v>
+        <v>0.909247309965247</v>
       </c>
       <c r="I2" t="n">
-        <v>0.693180009940773</v>
+        <v>0.636149633119223</v>
       </c>
       <c r="J2" t="n">
-        <v>0.70121194589928</v>
+        <v>0.785390250556912</v>
       </c>
       <c r="K2" t="n">
-        <v>0.880240645828153</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.909247309965247</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.635891200808388</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.784787411820172</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.496232098818529</v>
+        <v>0.496956252308101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564056918460414</v>
+        <v>0.553718303775116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.438519909819211</v>
+        <v>0.452686105807208</v>
       </c>
       <c r="D3" t="n">
-        <v>0.608336262307662</v>
+        <v>0.484321597862702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7742661541532</v>
+        <v>0.612111541228833</v>
       </c>
       <c r="F3" t="n">
-        <v>0.599498572230777</v>
+        <v>0.572331454255148</v>
       </c>
       <c r="G3" t="n">
-        <v>0.458263840559057</v>
+        <v>0.845257807486015</v>
       </c>
       <c r="H3" t="n">
-        <v>0.484301365259412</v>
+        <v>0.851579637309937</v>
       </c>
       <c r="I3" t="n">
-        <v>0.612085827792447</v>
+        <v>0.536291385483281</v>
       </c>
       <c r="J3" t="n">
-        <v>0.572309112554739</v>
+        <v>0.579183059294616</v>
       </c>
       <c r="K3" t="n">
-        <v>0.845249604687817</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.851579637309937</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.53634538292824</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.578812451569643</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.351976770537292</v>
+        <v>0.352117596369122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.66651612376134</v>
+        <v>0.655979457579115</v>
       </c>
       <c r="C4" t="n">
-        <v>0.573361650550744</v>
+        <v>0.579707575675069</v>
       </c>
       <c r="D4" t="n">
-        <v>0.667007243291184</v>
+        <v>0.613538232894647</v>
       </c>
       <c r="E4" t="n">
-        <v>0.846305654167647</v>
+        <v>0.74780131987402</v>
       </c>
       <c r="F4" t="n">
-        <v>0.708488851215913</v>
+        <v>0.687363838387126</v>
       </c>
       <c r="G4" t="n">
-        <v>0.545881515572153</v>
+        <v>0.879731656712811</v>
       </c>
       <c r="H4" t="n">
-        <v>0.613467393904764</v>
+        <v>0.911224469217849</v>
       </c>
       <c r="I4" t="n">
-        <v>0.747738543210677</v>
+        <v>0.627010199560514</v>
       </c>
       <c r="J4" t="n">
-        <v>0.687280315653707</v>
+        <v>0.75157471671655</v>
       </c>
       <c r="K4" t="n">
-        <v>0.879515634668033</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.911224469217849</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.626914750584237</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.751213818870576</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.425296011477573</v>
+        <v>0.425288098957725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.698602594648788</v>
+        <v>0.704317439138463</v>
       </c>
       <c r="C5" t="n">
-        <v>0.406090627387198</v>
+        <v>0.42672101819368</v>
       </c>
       <c r="D5" t="n">
-        <v>0.723594997027424</v>
+        <v>0.601842995962143</v>
       </c>
       <c r="E5" t="n">
-        <v>0.889579981493868</v>
+        <v>0.736252789377503</v>
       </c>
       <c r="F5" t="n">
-        <v>0.682683457496027</v>
+        <v>0.678172368299313</v>
       </c>
       <c r="G5" t="n">
-        <v>0.589211476424677</v>
+        <v>0.83244969139388</v>
       </c>
       <c r="H5" t="n">
-        <v>0.601734056180248</v>
+        <v>0.831456137791045</v>
       </c>
       <c r="I5" t="n">
-        <v>0.736254582714072</v>
+        <v>0.685485640466168</v>
       </c>
       <c r="J5" t="n">
-        <v>0.678198041159092</v>
+        <v>0.793249457133825</v>
       </c>
       <c r="K5" t="n">
-        <v>0.832453270416735</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.831456137791045</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.685388571356183</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.792944541873363</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.496524297223254</v>
+        <v>0.496836260204527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.548749204972874</v>
+        <v>0.556007222541788</v>
       </c>
       <c r="C6" t="n">
-        <v>0.366613390750273</v>
+        <v>0.392706735271895</v>
       </c>
       <c r="D6" t="n">
-        <v>0.583987178202389</v>
+        <v>0.356105750421195</v>
       </c>
       <c r="E6" t="n">
-        <v>0.809444964341555</v>
+        <v>0.508432438341536</v>
       </c>
       <c r="F6" t="n">
-        <v>0.502893565174609</v>
+        <v>0.451519556659133</v>
       </c>
       <c r="G6" t="n">
-        <v>0.484386429576709</v>
+        <v>0.677827112481047</v>
       </c>
       <c r="H6" t="n">
-        <v>0.356013330649719</v>
+        <v>0.743498584988873</v>
       </c>
       <c r="I6" t="n">
-        <v>0.508382107274219</v>
+        <v>0.503741905167505</v>
       </c>
       <c r="J6" t="n">
-        <v>0.451398568187944</v>
+        <v>0.637096655800029</v>
       </c>
       <c r="K6" t="n">
-        <v>0.677827112481047</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.743498584988873</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.503559387678212</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.636870250532107</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.373907558453907</v>
+        <v>0.373993319775201</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.488009346515533</v>
+        <v>0.50312291438834</v>
       </c>
       <c r="C7" t="n">
-        <v>0.304486035670833</v>
+        <v>0.316198486427608</v>
       </c>
       <c r="D7" t="n">
-        <v>0.513014491525721</v>
+        <v>0.34215953895184</v>
       </c>
       <c r="E7" t="n">
-        <v>0.71931115965366</v>
+        <v>0.455068700122256</v>
       </c>
       <c r="F7" t="n">
-        <v>0.495264748486105</v>
+        <v>0.306824263084082</v>
       </c>
       <c r="G7" t="n">
-        <v>0.440316456384772</v>
+        <v>0.671355992475847</v>
       </c>
       <c r="H7" t="n">
-        <v>0.342128267431882</v>
+        <v>0.73716679715381</v>
       </c>
       <c r="I7" t="n">
-        <v>0.454830804343478</v>
+        <v>0.455679906453223</v>
       </c>
       <c r="J7" t="n">
-        <v>0.306878691636744</v>
+        <v>0.566496834134014</v>
       </c>
       <c r="K7" t="n">
-        <v>0.671355992475847</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.73716679715381</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.45566201329143</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.566039039099673</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.339022055208755</v>
+        <v>0.339067925103543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.679366394096195</v>
+        <v>0.680881448179833</v>
       </c>
       <c r="C8" t="n">
-        <v>0.595648253088616</v>
+        <v>0.616567982061628</v>
       </c>
       <c r="D8" t="n">
-        <v>0.680987204503282</v>
+        <v>0.743644347389163</v>
       </c>
       <c r="E8" t="n">
-        <v>0.831184500933943</v>
+        <v>0.814701212857562</v>
       </c>
       <c r="F8" t="n">
-        <v>0.695788344040076</v>
+        <v>0.757048871605567</v>
       </c>
       <c r="G8" t="n">
-        <v>0.538162773640089</v>
+        <v>0.713280127381035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.743500976587183</v>
+        <v>0.703520370125625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.81462228490617</v>
+        <v>0.671270631778761</v>
       </c>
       <c r="J8" t="n">
-        <v>0.756962294490717</v>
+        <v>0.776836935461012</v>
       </c>
       <c r="K8" t="n">
-        <v>0.713280127381035</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.703520370125625</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.671406780430398</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.776812968723143</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.425499404919733</v>
+        <v>0.425661149175785</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.582407081968796</v>
+        <v>0.609601586795904</v>
       </c>
       <c r="C9" t="n">
-        <v>0.440671030859726</v>
+        <v>0.459499864440356</v>
       </c>
       <c r="D9" t="n">
-        <v>0.616661919613841</v>
+        <v>0.529969608967456</v>
       </c>
       <c r="E9" t="n">
-        <v>0.791367358009102</v>
+        <v>0.619684579205792</v>
       </c>
       <c r="F9" t="n">
-        <v>0.647850068391449</v>
+        <v>0.581343297592584</v>
       </c>
       <c r="G9" t="n">
-        <v>0.562087374904841</v>
+        <v>0.756844881931732</v>
       </c>
       <c r="H9" t="n">
-        <v>0.529885434677782</v>
+        <v>0.822839088961434</v>
       </c>
       <c r="I9" t="n">
-        <v>0.619694338952137</v>
+        <v>0.529112697724995</v>
       </c>
       <c r="J9" t="n">
-        <v>0.581289088318094</v>
+        <v>0.580830159607851</v>
       </c>
       <c r="K9" t="n">
-        <v>0.756844881931732</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.822839088961434</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.529363660067618</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.581144289159245</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.389096341662054</v>
+        <v>0.389019482696932</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.517681293588919</v>
+        <v>0.675595447215337</v>
       </c>
       <c r="C10" t="n">
-        <v>0.37450861498383</v>
+        <v>0.523930159271177</v>
       </c>
       <c r="D10" t="n">
-        <v>0.54400229948967</v>
+        <v>0.433349195600366</v>
       </c>
       <c r="E10" t="n">
-        <v>0.661278534958537</v>
+        <v>0.696851480613757</v>
       </c>
       <c r="F10" t="n">
-        <v>0.497096533902024</v>
+        <v>0.583790255087382</v>
       </c>
       <c r="G10" t="n">
-        <v>0.442405137881287</v>
+        <v>0.727098526374066</v>
       </c>
       <c r="H10" t="n">
-        <v>0.389456592496737</v>
+        <v>0.741985444624183</v>
       </c>
       <c r="I10" t="n">
-        <v>0.639772161098881</v>
+        <v>0.641824096726743</v>
       </c>
       <c r="J10" t="n">
-        <v>0.541929639804469</v>
+        <v>0.834461320073758</v>
       </c>
       <c r="K10" t="n">
-        <v>0.404576421408372</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.407592835762763</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.489892191381658</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.654584229780058</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.324832521986835</v>
+        <v>0.474126518973143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.364700740506257</v>
+        <v>0.364717906507653</v>
       </c>
       <c r="C11" t="n">
-        <v>0.301437840047023</v>
+        <v>0.301242387158432</v>
       </c>
       <c r="D11" t="n">
-        <v>0.347757564445013</v>
+        <v>0.163327499246366</v>
       </c>
       <c r="E11" t="n">
-        <v>0.612564469882184</v>
+        <v>0.313179598308858</v>
       </c>
       <c r="F11" t="n">
-        <v>0.329076922032927</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.266032348749018</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.163374634470308</v>
-      </c>
+        <v>0.218483573122562</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
       <c r="I11" t="n">
-        <v>0.313128420422624</v>
+        <v>0.283095421815601</v>
       </c>
       <c r="J11" t="n">
-        <v>0.218439546291854</v>
-      </c>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11" t="n">
-        <v>0.282837312902432</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.521302744077032</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.271064836019934</v>
+        <v>0.52122515690493</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.27084855688435</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>0.347856888878235</v>
+        <v>0.347853243460036</v>
       </c>
       <c r="C12" t="n">
-        <v>0.261828422049271</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.393011358029993</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.540846531529226</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.30076097129752</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.236110214107178</v>
-      </c>
+        <v>0.262527011404327</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
       <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12" t="n">
-        <v>0.31201873214884</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.450138037793688</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.174002494177101</v>
+      <c r="I12" t="n">
+        <v>0.311745273790548</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.450524011973634</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.173904958357855</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>0.414163491723958</v>
+        <v>0.410626908494325</v>
       </c>
       <c r="C13" t="n">
-        <v>0.396411998512916</v>
+        <v>0.393121093071121</v>
       </c>
       <c r="D13" t="n">
-        <v>0.37990538035527</v>
+        <v>0.282669471326983</v>
       </c>
       <c r="E13" t="n">
-        <v>0.606618681027554</v>
+        <v>0.376571407830385</v>
       </c>
       <c r="F13" t="n">
-        <v>0.404741669455715</v>
+        <v>0.32600471502799</v>
       </c>
       <c r="G13" t="n">
-        <v>0.296470179474792</v>
+        <v>0.662536527281334</v>
       </c>
       <c r="H13" t="n">
-        <v>0.282576495496765</v>
+        <v>0.698489352155402</v>
       </c>
       <c r="I13" t="n">
-        <v>0.376409725924188</v>
+        <v>0.362475436951784</v>
       </c>
       <c r="J13" t="n">
-        <v>0.325947806714271</v>
+        <v>0.535384805366787</v>
       </c>
       <c r="K13" t="n">
-        <v>0.662536527281334</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.698489352155402</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.362460536490887</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.536101382797469</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.265773612275098</v>
+        <v>0.265617828927838</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/main_radical_redistr_pol_positive.xlsx
+++ b/xlsx/country_comparison/main_radical_redistr_pol_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -21,6 +21,18 @@
   </si>
   <si>
     <t xml:space="preserve">Millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Center/Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Far right</t>
   </si>
   <si>
     <t xml:space="preserve">Japan Non-voters</t>
@@ -453,10 +465,22 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
         <v>0.678679804978435</v>
@@ -465,33 +489,45 @@
         <v>0.582036706373417</v>
       </c>
       <c r="D2" t="n">
+        <v>0.644575228658036</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.800284739031995</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.642550167034555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.469492339511511</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.686368170390751</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
         <v>0.693214710621706</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>0.701245337266761</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>0.880240645828153</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>0.909247309965247</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>0.636149633119223</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>0.785390250556912</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>0.496956252308101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
         <v>0.553718303775116</v>
@@ -500,33 +536,45 @@
         <v>0.452686105807208</v>
       </c>
       <c r="D3" t="n">
+        <v>0.608336262307662</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7742661541532</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.599498572230777</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.458263840559057</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.484321597862702</v>
       </c>
-      <c r="E3" t="n">
+      <c r="I3" t="n">
         <v>0.612111541228833</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>0.572331454255148</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.845257807486015</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
+        <v>0.846428606188793</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.851579637309937</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>0.536291385483281</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>0.579183059294616</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>0.352117596369122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
         <v>0.655979457579115</v>
@@ -535,33 +583,45 @@
         <v>0.579707575675069</v>
       </c>
       <c r="D4" t="n">
+        <v>0.667007243291184</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.846305654167647</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.708488851215913</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.545881515572153</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.613538232894647</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
         <v>0.74780131987402</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>0.687363838387126</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.879731656712811</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>0.87796797988428</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.911224469217849</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>0.627010199560514</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>0.75157471671655</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>0.425288098957725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
         <v>0.704317439138463</v>
@@ -570,33 +630,45 @@
         <v>0.42672101819368</v>
       </c>
       <c r="D5" t="n">
+        <v>0.723594997027424</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.889579981493869</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.682683457496027</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.589211476424677</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.601842995962143</v>
       </c>
-      <c r="E5" t="n">
+      <c r="I5" t="n">
         <v>0.736252789377503</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
         <v>0.678172368299313</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.83244969139388</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
+        <v>0.830395038048114</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.831456137791045</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>0.685485640466168</v>
       </c>
-      <c r="J5" t="n">
+      <c r="N5" t="n">
         <v>0.793249457133825</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>0.496836260204527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" t="n">
         <v>0.556007222541788</v>
@@ -605,33 +677,45 @@
         <v>0.392706735271895</v>
       </c>
       <c r="D6" t="n">
+        <v>0.583987178202389</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.809444964341555</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.502893565174609</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.484386429576709</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.356105750421195</v>
       </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
         <v>0.508432438341536</v>
       </c>
-      <c r="F6" t="n">
+      <c r="J6" t="n">
         <v>0.451519556659133</v>
       </c>
-      <c r="G6" t="n">
+      <c r="K6" t="n">
         <v>0.677827112481047</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>0.743498584988873</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>0.503741905167505</v>
       </c>
-      <c r="J6" t="n">
+      <c r="N6" t="n">
         <v>0.637096655800029</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>0.373993319775201</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0.50312291438834</v>
@@ -640,33 +724,45 @@
         <v>0.316198486427608</v>
       </c>
       <c r="D7" t="n">
+        <v>0.513014491525721</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.71931115965366</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.495264748486105</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.440316456384772</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.34215953895184</v>
       </c>
-      <c r="E7" t="n">
+      <c r="I7" t="n">
         <v>0.455068700122256</v>
       </c>
-      <c r="F7" t="n">
+      <c r="J7" t="n">
         <v>0.306824263084082</v>
       </c>
-      <c r="G7" t="n">
+      <c r="K7" t="n">
         <v>0.671355992475847</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="n">
         <v>0.73716679715381</v>
       </c>
-      <c r="I7" t="n">
+      <c r="M7" t="n">
         <v>0.455679906453223</v>
       </c>
-      <c r="J7" t="n">
+      <c r="N7" t="n">
         <v>0.566496834134014</v>
       </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
         <v>0.339067925103543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" t="n">
         <v>0.680881448179833</v>
@@ -675,68 +771,92 @@
         <v>0.616567982061628</v>
       </c>
       <c r="D8" t="n">
+        <v>0.680987204503282</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.831184500933943</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.695788344040076</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.538162773640089</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.743644347389163</v>
       </c>
-      <c r="E8" t="n">
+      <c r="I8" t="n">
         <v>0.814701212857562</v>
       </c>
-      <c r="F8" t="n">
+      <c r="J8" t="n">
         <v>0.757048871605567</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.713280127381035</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
+        <v>0.721853509181885</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.703520370125625</v>
       </c>
-      <c r="I8" t="n">
+      <c r="M8" t="n">
         <v>0.671270631778761</v>
       </c>
-      <c r="J8" t="n">
+      <c r="N8" t="n">
         <v>0.776836935461012</v>
       </c>
-      <c r="K8" t="n">
+      <c r="O8" t="n">
         <v>0.425661149175785</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>0.609601586795904</v>
+        <v>0.704965329416964</v>
       </c>
       <c r="C9" t="n">
-        <v>0.459499864440356</v>
+        <v>0.501352982535347</v>
       </c>
       <c r="D9" t="n">
-        <v>0.529969608967456</v>
+        <v>0.787483813023996</v>
       </c>
       <c r="E9" t="n">
-        <v>0.619684579205792</v>
+        <v>0.876770446811719</v>
       </c>
       <c r="F9" t="n">
-        <v>0.581343297592584</v>
+        <v>0.74609538238357</v>
       </c>
       <c r="G9" t="n">
-        <v>0.756844881931732</v>
+        <v>0.664878143534609</v>
       </c>
       <c r="H9" t="n">
-        <v>0.822839088961434</v>
+        <v>0.7335602187152</v>
       </c>
       <c r="I9" t="n">
-        <v>0.529112697724995</v>
+        <v>0.725922165695082</v>
       </c>
       <c r="J9" t="n">
-        <v>0.580830159607851</v>
+        <v>0.685126203737904</v>
       </c>
       <c r="K9" t="n">
-        <v>0.389019482696932</v>
+        <v>0.92816201896394</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.938466265662205</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.688883535477258</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.68963486840272</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.436451458600216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B10" t="n">
         <v>0.675595447215337</v>
@@ -745,33 +865,45 @@
         <v>0.523930159271177</v>
       </c>
       <c r="D10" t="n">
+        <v>0.709363981944143</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.892471876813608</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.637051467662211</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.578161277543308</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.433349195600366</v>
       </c>
-      <c r="E10" t="n">
+      <c r="I10" t="n">
         <v>0.696851480613757</v>
       </c>
-      <c r="F10" t="n">
+      <c r="J10" t="n">
         <v>0.583790255087382</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.727098526374066</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="K10" t="n">
+        <v>0.729122438104651</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.741985444624183</v>
       </c>
-      <c r="I10" t="n">
+      <c r="M10" t="n">
         <v>0.641824096726743</v>
       </c>
-      <c r="J10" t="n">
+      <c r="N10" t="n">
         <v>0.834461320073758</v>
       </c>
-      <c r="K10" t="n">
+      <c r="O10" t="n">
         <v>0.474126518973143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" t="n">
         <v>0.364717906507653</v>
@@ -780,29 +912,41 @@
         <v>0.301242387158432</v>
       </c>
       <c r="D11" t="n">
+        <v>0.347757564445013</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.612564469882184</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.329076922032927</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.266032348749018</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.163327499246366</v>
       </c>
-      <c r="E11" t="n">
+      <c r="I11" t="n">
         <v>0.313179598308858</v>
       </c>
-      <c r="F11" t="n">
+      <c r="J11" t="n">
         <v>0.218483573122562</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11" t="n">
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11" t="n">
         <v>0.283095421815601</v>
       </c>
-      <c r="J11" t="n">
+      <c r="N11" t="n">
         <v>0.52122515690493</v>
       </c>
-      <c r="K11" t="n">
+      <c r="O11" t="n">
         <v>0.27084855688435</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B12" t="n">
         <v>0.347853243460036</v>
@@ -810,24 +954,36 @@
       <c r="C12" t="n">
         <v>0.262527011404327</v>
       </c>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
+      <c r="D12" t="n">
+        <v>0.393011358029993</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.540846531529226</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.30076097129752</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.236110214107178</v>
+      </c>
       <c r="H12"/>
-      <c r="I12" t="n">
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12" t="n">
         <v>0.311745273790548</v>
       </c>
-      <c r="J12" t="n">
+      <c r="N12" t="n">
         <v>0.450524011973634</v>
       </c>
-      <c r="K12" t="n">
+      <c r="O12" t="n">
         <v>0.173904958357855</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>0.410626908494325</v>
@@ -836,27 +992,39 @@
         <v>0.393121093071121</v>
       </c>
       <c r="D13" t="n">
+        <v>0.37990538035527</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.606618681027554</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.404741669455715</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.296470179474793</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.282669471326983</v>
       </c>
-      <c r="E13" t="n">
+      <c r="I13" t="n">
         <v>0.376571407830385</v>
       </c>
-      <c r="F13" t="n">
+      <c r="J13" t="n">
         <v>0.32600471502799</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.662536527281334</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="K13" t="n">
+        <v>0.665815836537034</v>
+      </c>
+      <c r="L13" t="n">
         <v>0.698489352155402</v>
       </c>
-      <c r="I13" t="n">
+      <c r="M13" t="n">
         <v>0.362475436951784</v>
       </c>
-      <c r="J13" t="n">
+      <c r="N13" t="n">
         <v>0.535384805366787</v>
       </c>
-      <c r="K13" t="n">
+      <c r="O13" t="n">
         <v>0.265617828927838</v>
       </c>
     </row>

--- a/xlsx/country_comparison/main_radical_redistr_pol_positive.xlsx
+++ b/xlsx/country_comparison/main_radical_redistr_pol_positive.xlsx
@@ -483,10 +483,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>0.678679804978435</v>
+        <v>0.678255122017956</v>
       </c>
       <c r="C2" t="n">
-        <v>0.582036706373417</v>
+        <v>0.582213755593942</v>
       </c>
       <c r="D2" t="n">
         <v>0.644575228658036</v>
@@ -530,10 +530,10 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>0.553718303775116</v>
+        <v>0.553746767090015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.452686105807208</v>
+        <v>0.452808231861887</v>
       </c>
       <c r="D3" t="n">
         <v>0.608336262307662</v>
@@ -577,10 +577,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>0.655979457579115</v>
+        <v>0.655683473250087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.579707575675069</v>
+        <v>0.579787314673126</v>
       </c>
       <c r="D4" t="n">
         <v>0.667007243291184</v>
@@ -624,10 +624,10 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.704317439138463</v>
+        <v>0.704079856692946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.42672101819368</v>
+        <v>0.426801076374466</v>
       </c>
       <c r="D5" t="n">
         <v>0.723594997027424</v>
@@ -648,10 +648,10 @@
         <v>0.736252789377503</v>
       </c>
       <c r="J5" t="n">
-        <v>0.678172368299313</v>
+        <v>0.678172368299312</v>
       </c>
       <c r="K5" t="n">
-        <v>0.830395038048114</v>
+        <v>0.830395038048113</v>
       </c>
       <c r="L5" t="n">
         <v>0.831456137791045</v>
@@ -671,10 +671,10 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>0.556007222541788</v>
+        <v>0.556565037682828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.392706735271895</v>
+        <v>0.393016824439431</v>
       </c>
       <c r="D6" t="n">
         <v>0.583987178202389</v>
@@ -718,10 +718,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>0.50312291438834</v>
+        <v>0.503247309719211</v>
       </c>
       <c r="C7" t="n">
-        <v>0.316198486427608</v>
+        <v>0.316231358914818</v>
       </c>
       <c r="D7" t="n">
         <v>0.513014491525721</v>
@@ -765,10 +765,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>0.680881448179833</v>
+        <v>0.680815013747804</v>
       </c>
       <c r="C8" t="n">
-        <v>0.616567982061628</v>
+        <v>0.616668833076667</v>
       </c>
       <c r="D8" t="n">
         <v>0.680987204503282</v>
@@ -812,10 +812,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>0.704965329416964</v>
+        <v>0.704960018034767</v>
       </c>
       <c r="C9" t="n">
-        <v>0.501352982535347</v>
+        <v>0.501381130731594</v>
       </c>
       <c r="D9" t="n">
         <v>0.787483813023996</v>
@@ -986,10 +986,10 @@
         <v>26</v>
       </c>
       <c r="B13" t="n">
-        <v>0.410626908494325</v>
+        <v>0.410629863862209</v>
       </c>
       <c r="C13" t="n">
-        <v>0.393121093071121</v>
+        <v>0.393225264575894</v>
       </c>
       <c r="D13" t="n">
         <v>0.37990538035527</v>
@@ -1001,7 +1001,7 @@
         <v>0.404741669455715</v>
       </c>
       <c r="G13" t="n">
-        <v>0.296470179474793</v>
+        <v>0.296470179474792</v>
       </c>
       <c r="H13" t="n">
         <v>0.282669471326983</v>

--- a/xlsx/country_comparison/main_radical_redistr_pol_positive.xlsx
+++ b/xlsx/country_comparison/main_radical_redistr_pol_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,9 +20,6 @@
     <t xml:space="preserve">$ bold('All')</t>
   </si>
   <si>
-    <t xml:space="preserve">Millionaires</t>
-  </si>
-  <si>
     <t xml:space="preserve">Europe Non-voters</t>
   </si>
   <si>
@@ -65,7 +62,7 @@
     <t xml:space="preserve">Global climate scheme (GCS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports int'l climate scheme (any variant)</t>
+    <t xml:space="preserve">Supports Int'l Climate Scheme (any variant)</t>
   </si>
   <si>
     <t xml:space="preserve">Supports int'l tax on millionaires
@@ -474,557 +471,518 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.678255122017956</v>
       </c>
       <c r="C2" t="n">
-        <v>0.582213755593942</v>
+        <v>0.645494526768042</v>
       </c>
       <c r="D2" t="n">
-        <v>0.644575228658036</v>
+        <v>0.800284739031995</v>
       </c>
       <c r="E2" t="n">
-        <v>0.800284739031995</v>
+        <v>0.642550167034555</v>
       </c>
       <c r="F2" t="n">
-        <v>0.642550167034555</v>
+        <v>0.469492339511511</v>
       </c>
       <c r="G2" t="n">
-        <v>0.469492339511511</v>
+        <v>0.686368170390751</v>
       </c>
       <c r="H2" t="n">
-        <v>0.686368170390751</v>
+        <v>0.693214710621706</v>
       </c>
       <c r="I2" t="n">
-        <v>0.693214710621706</v>
+        <v>0.701245337266761</v>
       </c>
       <c r="J2" t="n">
-        <v>0.701245337266761</v>
+        <v>0.880240645828153</v>
       </c>
       <c r="K2" t="n">
-        <v>0.880240645828153</v>
+        <v>0.909247309965247</v>
       </c>
       <c r="L2" t="n">
-        <v>0.909247309965247</v>
+        <v>0.636149633119223</v>
       </c>
       <c r="M2" t="n">
-        <v>0.636149633119223</v>
+        <v>0.785390250556912</v>
       </c>
       <c r="N2" t="n">
-        <v>0.785390250556912</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.496956252308101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.553746767090015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.452808231861887</v>
+        <v>0.609015187485241</v>
       </c>
       <c r="D3" t="n">
-        <v>0.608336262307662</v>
+        <v>0.7742661541532</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7742661541532</v>
+        <v>0.599498572230777</v>
       </c>
       <c r="F3" t="n">
-        <v>0.599498572230777</v>
+        <v>0.458263840559057</v>
       </c>
       <c r="G3" t="n">
-        <v>0.458263840559057</v>
+        <v>0.484321597862702</v>
       </c>
       <c r="H3" t="n">
-        <v>0.484321597862702</v>
+        <v>0.612111541228833</v>
       </c>
       <c r="I3" t="n">
-        <v>0.612111541228833</v>
+        <v>0.572331454255148</v>
       </c>
       <c r="J3" t="n">
-        <v>0.572331454255148</v>
+        <v>0.846428606188793</v>
       </c>
       <c r="K3" t="n">
-        <v>0.846428606188793</v>
+        <v>0.851579637309937</v>
       </c>
       <c r="L3" t="n">
-        <v>0.851579637309937</v>
+        <v>0.536291385483281</v>
       </c>
       <c r="M3" t="n">
-        <v>0.536291385483281</v>
+        <v>0.579183059294616</v>
       </c>
       <c r="N3" t="n">
-        <v>0.579183059294616</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.352117596369122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.655683473250087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.579787314673126</v>
+        <v>0.667584465905187</v>
       </c>
       <c r="D4" t="n">
-        <v>0.667007243291184</v>
+        <v>0.846305654167647</v>
       </c>
       <c r="E4" t="n">
-        <v>0.846305654167647</v>
+        <v>0.708488851215913</v>
       </c>
       <c r="F4" t="n">
-        <v>0.708488851215913</v>
+        <v>0.545881515572153</v>
       </c>
       <c r="G4" t="n">
-        <v>0.545881515572153</v>
+        <v>0.613538232894647</v>
       </c>
       <c r="H4" t="n">
-        <v>0.613538232894647</v>
+        <v>0.74780131987402</v>
       </c>
       <c r="I4" t="n">
-        <v>0.74780131987402</v>
+        <v>0.687363838387126</v>
       </c>
       <c r="J4" t="n">
-        <v>0.687363838387126</v>
+        <v>0.87796797988428</v>
       </c>
       <c r="K4" t="n">
-        <v>0.87796797988428</v>
+        <v>0.911224469217849</v>
       </c>
       <c r="L4" t="n">
-        <v>0.911224469217849</v>
+        <v>0.627010199560514</v>
       </c>
       <c r="M4" t="n">
-        <v>0.627010199560514</v>
+        <v>0.75157471671655</v>
       </c>
       <c r="N4" t="n">
-        <v>0.75157471671655</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.425288098957725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.704079856692946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.426801076374466</v>
+        <v>0.724074128225101</v>
       </c>
       <c r="D5" t="n">
-        <v>0.723594997027424</v>
+        <v>0.889579981493869</v>
       </c>
       <c r="E5" t="n">
-        <v>0.889579981493869</v>
+        <v>0.682683457496027</v>
       </c>
       <c r="F5" t="n">
-        <v>0.682683457496027</v>
+        <v>0.589211476424677</v>
       </c>
       <c r="G5" t="n">
-        <v>0.589211476424677</v>
+        <v>0.601842995962143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.601842995962143</v>
+        <v>0.736252789377503</v>
       </c>
       <c r="I5" t="n">
-        <v>0.736252789377503</v>
+        <v>0.678172368299312</v>
       </c>
       <c r="J5" t="n">
-        <v>0.678172368299312</v>
+        <v>0.830395038048113</v>
       </c>
       <c r="K5" t="n">
-        <v>0.830395038048113</v>
+        <v>0.831456137791045</v>
       </c>
       <c r="L5" t="n">
-        <v>0.831456137791045</v>
+        <v>0.685485640466168</v>
       </c>
       <c r="M5" t="n">
-        <v>0.685485640466168</v>
+        <v>0.793249457133825</v>
       </c>
       <c r="N5" t="n">
-        <v>0.793249457133825</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.496836260204527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.556565037682828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.393016824439431</v>
+        <v>0.584715470382293</v>
       </c>
       <c r="D6" t="n">
-        <v>0.583987178202389</v>
+        <v>0.809444964341555</v>
       </c>
       <c r="E6" t="n">
-        <v>0.809444964341555</v>
+        <v>0.502893565174609</v>
       </c>
       <c r="F6" t="n">
-        <v>0.502893565174609</v>
+        <v>0.484386429576709</v>
       </c>
       <c r="G6" t="n">
-        <v>0.484386429576709</v>
+        <v>0.356105750421195</v>
       </c>
       <c r="H6" t="n">
-        <v>0.356105750421195</v>
+        <v>0.508432438341536</v>
       </c>
       <c r="I6" t="n">
-        <v>0.508432438341536</v>
+        <v>0.451519556659133</v>
       </c>
       <c r="J6" t="n">
-        <v>0.451519556659133</v>
+        <v>0.677827112481047</v>
       </c>
       <c r="K6" t="n">
-        <v>0.677827112481047</v>
+        <v>0.743498584988873</v>
       </c>
       <c r="L6" t="n">
-        <v>0.743498584988873</v>
+        <v>0.503741905167505</v>
       </c>
       <c r="M6" t="n">
-        <v>0.503741905167505</v>
+        <v>0.637096655800029</v>
       </c>
       <c r="N6" t="n">
-        <v>0.637096655800029</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.373993319775201</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.503247309719211</v>
       </c>
       <c r="C7" t="n">
-        <v>0.316231358914818</v>
+        <v>0.513850437188526</v>
       </c>
       <c r="D7" t="n">
-        <v>0.513014491525721</v>
+        <v>0.71931115965366</v>
       </c>
       <c r="E7" t="n">
-        <v>0.71931115965366</v>
+        <v>0.495264748486105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.495264748486105</v>
+        <v>0.440316456384772</v>
       </c>
       <c r="G7" t="n">
-        <v>0.440316456384772</v>
+        <v>0.34215953895184</v>
       </c>
       <c r="H7" t="n">
-        <v>0.34215953895184</v>
+        <v>0.455068700122256</v>
       </c>
       <c r="I7" t="n">
-        <v>0.455068700122256</v>
+        <v>0.306824263084082</v>
       </c>
       <c r="J7" t="n">
-        <v>0.306824263084082</v>
+        <v>0.671355992475847</v>
       </c>
       <c r="K7" t="n">
-        <v>0.671355992475847</v>
+        <v>0.73716679715381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.73716679715381</v>
+        <v>0.455679906453223</v>
       </c>
       <c r="M7" t="n">
-        <v>0.455679906453223</v>
+        <v>0.566496834134014</v>
       </c>
       <c r="N7" t="n">
-        <v>0.566496834134014</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.339067925103543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.680815013747804</v>
       </c>
       <c r="C8" t="n">
-        <v>0.616668833076667</v>
+        <v>0.680673282454082</v>
       </c>
       <c r="D8" t="n">
-        <v>0.680987204503282</v>
+        <v>0.831184500933943</v>
       </c>
       <c r="E8" t="n">
-        <v>0.831184500933943</v>
+        <v>0.695788344040076</v>
       </c>
       <c r="F8" t="n">
-        <v>0.695788344040076</v>
+        <v>0.538162773640089</v>
       </c>
       <c r="G8" t="n">
-        <v>0.538162773640089</v>
+        <v>0.743644347389163</v>
       </c>
       <c r="H8" t="n">
-        <v>0.743644347389163</v>
+        <v>0.814701212857562</v>
       </c>
       <c r="I8" t="n">
-        <v>0.814701212857562</v>
+        <v>0.757048871605567</v>
       </c>
       <c r="J8" t="n">
-        <v>0.757048871605567</v>
+        <v>0.721853509181885</v>
       </c>
       <c r="K8" t="n">
-        <v>0.721853509181885</v>
+        <v>0.703520370125625</v>
       </c>
       <c r="L8" t="n">
-        <v>0.703520370125625</v>
+        <v>0.671270631778761</v>
       </c>
       <c r="M8" t="n">
-        <v>0.671270631778761</v>
+        <v>0.776836935461012</v>
       </c>
       <c r="N8" t="n">
-        <v>0.776836935461012</v>
-      </c>
-      <c r="O8" t="n">
         <v>0.425661149175785</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0.704960018034767</v>
       </c>
       <c r="C9" t="n">
-        <v>0.501381130731594</v>
+        <v>0.787954017306878</v>
       </c>
       <c r="D9" t="n">
-        <v>0.787483813023996</v>
+        <v>0.876770446811719</v>
       </c>
       <c r="E9" t="n">
-        <v>0.876770446811719</v>
+        <v>0.74609538238357</v>
       </c>
       <c r="F9" t="n">
-        <v>0.74609538238357</v>
+        <v>0.664878143534609</v>
       </c>
       <c r="G9" t="n">
-        <v>0.664878143534609</v>
+        <v>0.7335602187152</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7335602187152</v>
+        <v>0.725922165695082</v>
       </c>
       <c r="I9" t="n">
-        <v>0.725922165695082</v>
+        <v>0.685126203737904</v>
       </c>
       <c r="J9" t="n">
-        <v>0.685126203737904</v>
+        <v>0.92816201896394</v>
       </c>
       <c r="K9" t="n">
-        <v>0.92816201896394</v>
+        <v>0.938466265662205</v>
       </c>
       <c r="L9" t="n">
-        <v>0.938466265662205</v>
+        <v>0.688883535477258</v>
       </c>
       <c r="M9" t="n">
-        <v>0.688883535477258</v>
+        <v>0.68963486840272</v>
       </c>
       <c r="N9" t="n">
-        <v>0.68963486840272</v>
-      </c>
-      <c r="O9" t="n">
         <v>0.436451458600216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>0.675595447215337</v>
       </c>
       <c r="C10" t="n">
-        <v>0.523930159271177</v>
+        <v>0.70986778173764</v>
       </c>
       <c r="D10" t="n">
-        <v>0.709363981944143</v>
+        <v>0.892471876813608</v>
       </c>
       <c r="E10" t="n">
-        <v>0.892471876813608</v>
+        <v>0.637051467662211</v>
       </c>
       <c r="F10" t="n">
-        <v>0.637051467662211</v>
+        <v>0.578161277543308</v>
       </c>
       <c r="G10" t="n">
-        <v>0.578161277543308</v>
+        <v>0.433349195600366</v>
       </c>
       <c r="H10" t="n">
-        <v>0.433349195600366</v>
+        <v>0.696851480613757</v>
       </c>
       <c r="I10" t="n">
-        <v>0.696851480613757</v>
+        <v>0.583790255087382</v>
       </c>
       <c r="J10" t="n">
-        <v>0.583790255087382</v>
+        <v>0.729122438104651</v>
       </c>
       <c r="K10" t="n">
-        <v>0.729122438104651</v>
+        <v>0.741985444624183</v>
       </c>
       <c r="L10" t="n">
-        <v>0.741985444624183</v>
+        <v>0.641824096726743</v>
       </c>
       <c r="M10" t="n">
-        <v>0.641824096726743</v>
+        <v>0.834461320073758</v>
       </c>
       <c r="N10" t="n">
-        <v>0.834461320073758</v>
-      </c>
-      <c r="O10" t="n">
         <v>0.474126518973143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>0.364717906507653</v>
       </c>
       <c r="C11" t="n">
-        <v>0.301242387158432</v>
+        <v>0.348888186886583</v>
       </c>
       <c r="D11" t="n">
-        <v>0.347757564445013</v>
+        <v>0.612564469882184</v>
       </c>
       <c r="E11" t="n">
-        <v>0.612564469882184</v>
+        <v>0.329076922032927</v>
       </c>
       <c r="F11" t="n">
-        <v>0.329076922032927</v>
+        <v>0.266032348749018</v>
       </c>
       <c r="G11" t="n">
-        <v>0.266032348749018</v>
+        <v>0.163327499246366</v>
       </c>
       <c r="H11" t="n">
-        <v>0.163327499246366</v>
+        <v>0.313179598308858</v>
       </c>
       <c r="I11" t="n">
-        <v>0.313179598308858</v>
-      </c>
-      <c r="J11" t="n">
         <v>0.218483573122562</v>
       </c>
+      <c r="J11"/>
       <c r="K11"/>
-      <c r="L11"/>
+      <c r="L11" t="n">
+        <v>0.283095421815601</v>
+      </c>
       <c r="M11" t="n">
-        <v>0.283095421815601</v>
+        <v>0.52122515690493</v>
       </c>
       <c r="N11" t="n">
-        <v>0.52122515690493</v>
-      </c>
-      <c r="O11" t="n">
         <v>0.27084855688435</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>0.347853243460036</v>
       </c>
       <c r="C12" t="n">
-        <v>0.262527011404327</v>
+        <v>0.394261110370281</v>
       </c>
       <c r="D12" t="n">
-        <v>0.393011358029993</v>
+        <v>0.540846531529226</v>
       </c>
       <c r="E12" t="n">
-        <v>0.540846531529226</v>
+        <v>0.30076097129752</v>
       </c>
       <c r="F12" t="n">
-        <v>0.30076097129752</v>
-      </c>
-      <c r="G12" t="n">
         <v>0.236110214107178</v>
       </c>
+      <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="L12"/>
+      <c r="L12" t="n">
+        <v>0.311745273790548</v>
+      </c>
       <c r="M12" t="n">
-        <v>0.311745273790548</v>
+        <v>0.450524011973634</v>
       </c>
       <c r="N12" t="n">
-        <v>0.450524011973634</v>
-      </c>
-      <c r="O12" t="n">
         <v>0.173904958357855</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
         <v>0.410629863862209</v>
       </c>
       <c r="C13" t="n">
-        <v>0.393225264575894</v>
+        <v>0.380980276520636</v>
       </c>
       <c r="D13" t="n">
-        <v>0.37990538035527</v>
+        <v>0.606618681027554</v>
       </c>
       <c r="E13" t="n">
-        <v>0.606618681027554</v>
+        <v>0.404741669455715</v>
       </c>
       <c r="F13" t="n">
-        <v>0.404741669455715</v>
+        <v>0.296470179474792</v>
       </c>
       <c r="G13" t="n">
-        <v>0.296470179474792</v>
+        <v>0.282669471326983</v>
       </c>
       <c r="H13" t="n">
-        <v>0.282669471326983</v>
+        <v>0.376571407830385</v>
       </c>
       <c r="I13" t="n">
-        <v>0.376571407830385</v>
+        <v>0.32600471502799</v>
       </c>
       <c r="J13" t="n">
-        <v>0.32600471502799</v>
+        <v>0.665815836537034</v>
       </c>
       <c r="K13" t="n">
-        <v>0.665815836537034</v>
+        <v>0.698489352155402</v>
       </c>
       <c r="L13" t="n">
-        <v>0.698489352155402</v>
+        <v>0.362475436951784</v>
       </c>
       <c r="M13" t="n">
-        <v>0.362475436951784</v>
+        <v>0.535384805366787</v>
       </c>
       <c r="N13" t="n">
-        <v>0.535384805366787</v>
-      </c>
-      <c r="O13" t="n">
         <v>0.265617828927838</v>
       </c>
     </row>
